--- a/Producto/04-It_I/05-Pruebas/Bugs Seguimientos.xlsx
+++ b/Producto/04-It_I/05-Pruebas/Bugs Seguimientos.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="23">
   <si>
     <t>Proyecto:</t>
   </si>
@@ -52,13 +52,48 @@
   </si>
   <si>
     <t>SIGMA - Salud Mascotas</t>
+  </si>
+  <si>
+    <t>Cuando registre un encuentro de una mascota y seleccione una posible coincidencia, la notificacion me la envio a mi mismo usuario actual y no al usuario que la habia registrado como perdida.</t>
+  </si>
+  <si>
+    <t>Iteracion 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Defecto </t>
+  </si>
+  <si>
+    <t>Peralta Miguel</t>
+  </si>
+  <si>
+    <t>Prado Mauricio</t>
+  </si>
+  <si>
+    <t>Menor</t>
+  </si>
+  <si>
+    <t>Re Testear</t>
+  </si>
+  <si>
+    <t>si no estoy logueado y hago click en el menu mascotas salta error siguiente:
+/nfs/c07/h03/mnt/109144/domains/saludmascotas.com.ar/html/includes/classes/Frontend/Router.php35
+(la situacion fue porque estaba logueado y me desloguee y permanecio en la misma pagina donde me encontraba al momento de estar logueado, quisas lo mejor sea que cuando cualquier usuario se desloguee sea redirigido a la pagina principal de SaludMascotas o sea "http://www.saludmascotas.com.ar".</t>
+  </si>
+  <si>
+    <t>Mayor</t>
+  </si>
+  <si>
+    <t>Asignado</t>
+  </si>
+  <si>
+    <t>estando en pagina principal(www.saludmascotas.com.ar) al querer registrar un nuevo usuario pide nombre, apellido,e-mail le doy a registrar y me lleva a la pantalla" saludmascotas.com.ar/user/register" y me informa que el usuario no se pudo registrar que falta nombre de usuario y contraseña, en esta ultima pagina si ingreso esos datos que faltan ahi si puedo registrar al usuario( quisas si en la principal se agrgara el poner el nombre usuario y la contaseña y validacion de contraseña se evitara esta situacion)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -95,6 +130,12 @@
       <sz val="8"/>
       <name val="Futura Lt BT"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Arial Unicode MS"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -122,7 +163,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -275,11 +316,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -334,6 +390,15 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -776,8 +841,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I72"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B2"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -842,43 +907,97 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="11.25" customHeight="1">
-      <c r="A9" s="7"/>
-      <c r="B9" s="8"/>
-      <c r="C9" s="7"/>
-      <c r="D9" s="11"/>
-      <c r="E9" s="12"/>
-      <c r="F9" s="13"/>
-      <c r="G9" s="11"/>
-      <c r="H9" s="11"/>
-      <c r="I9" s="10"/>
-    </row>
-    <row r="10" spans="1:9" ht="11.25" customHeight="1">
-      <c r="A10" s="7"/>
-      <c r="B10" s="8"/>
-      <c r="C10" s="7"/>
-      <c r="D10" s="11"/>
-      <c r="E10" s="12"/>
-      <c r="F10" s="13"/>
-      <c r="G10" s="11"/>
-      <c r="H10" s="11"/>
-      <c r="I10" s="10"/>
-    </row>
-    <row r="11" spans="1:9" ht="11.25" customHeight="1">
-      <c r="A11" s="7"/>
-      <c r="B11" s="8"/>
-      <c r="C11" s="7"/>
-      <c r="D11" s="11"/>
-      <c r="E11" s="12"/>
-      <c r="F11" s="13"/>
-      <c r="G11" s="11"/>
-      <c r="H11" s="11"/>
-      <c r="I11" s="10"/>
+    <row r="9" spans="1:9" ht="45" customHeight="1">
+      <c r="A9" s="7">
+        <v>1</v>
+      </c>
+      <c r="B9" s="8">
+        <v>40759</v>
+      </c>
+      <c r="C9" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="F9" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="G9" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="H9" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="I9" s="10" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="127.5" customHeight="1">
+      <c r="A10" s="7">
+        <v>2</v>
+      </c>
+      <c r="B10" s="8">
+        <v>40759</v>
+      </c>
+      <c r="C10" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="D10" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="E10" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="F10" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="G10" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="H10" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="I10" s="10" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="99" customHeight="1">
+      <c r="A11" s="7">
+        <v>3</v>
+      </c>
+      <c r="B11" s="8">
+        <v>40759</v>
+      </c>
+      <c r="C11" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="D11" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="E11" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="F11" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="G11" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="H11" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="I11" s="10" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="12" spans="1:9" ht="11.25" customHeight="1">
       <c r="A12" s="7"/>
       <c r="B12" s="8"/>
-      <c r="C12" s="7"/>
+      <c r="C12" s="19"/>
       <c r="D12" s="11"/>
       <c r="E12" s="12"/>
       <c r="F12" s="13"/>
@@ -889,7 +1008,7 @@
     <row r="13" spans="1:9" ht="11.25" customHeight="1">
       <c r="A13" s="7"/>
       <c r="B13" s="8"/>
-      <c r="C13" s="7"/>
+      <c r="C13" s="19"/>
       <c r="D13" s="11"/>
       <c r="E13" s="12"/>
       <c r="F13" s="13"/>
@@ -900,7 +1019,7 @@
     <row r="14" spans="1:9" ht="11.25" customHeight="1">
       <c r="A14" s="7"/>
       <c r="B14" s="8"/>
-      <c r="C14" s="7"/>
+      <c r="C14" s="19"/>
       <c r="D14" s="11"/>
       <c r="E14" s="12"/>
       <c r="F14" s="13"/>
@@ -911,7 +1030,7 @@
     <row r="15" spans="1:9" ht="11.25" customHeight="1">
       <c r="A15" s="7"/>
       <c r="B15" s="8"/>
-      <c r="C15" s="7"/>
+      <c r="C15" s="19"/>
       <c r="D15" s="11"/>
       <c r="E15" s="12"/>
       <c r="F15" s="13"/>
@@ -922,7 +1041,7 @@
     <row r="16" spans="1:9" ht="11.25" customHeight="1">
       <c r="A16" s="7"/>
       <c r="B16" s="8"/>
-      <c r="C16" s="7"/>
+      <c r="C16" s="19"/>
       <c r="D16" s="11"/>
       <c r="E16" s="12"/>
       <c r="F16" s="13"/>
@@ -933,7 +1052,7 @@
     <row r="17" spans="1:9" ht="11.25" customHeight="1">
       <c r="A17" s="7"/>
       <c r="B17" s="8"/>
-      <c r="C17" s="7"/>
+      <c r="C17" s="19"/>
       <c r="D17" s="11"/>
       <c r="E17" s="12"/>
       <c r="F17" s="13"/>
@@ -944,7 +1063,7 @@
     <row r="18" spans="1:9" ht="11.25" customHeight="1">
       <c r="A18" s="7"/>
       <c r="B18" s="8"/>
-      <c r="C18" s="7"/>
+      <c r="C18" s="19"/>
       <c r="D18" s="11"/>
       <c r="E18" s="12"/>
       <c r="F18" s="13"/>
@@ -955,7 +1074,7 @@
     <row r="19" spans="1:9" ht="11.25" customHeight="1">
       <c r="A19" s="7"/>
       <c r="B19" s="8"/>
-      <c r="C19" s="7"/>
+      <c r="C19" s="19"/>
       <c r="D19" s="11"/>
       <c r="E19" s="12"/>
       <c r="F19" s="13"/>
@@ -966,7 +1085,7 @@
     <row r="20" spans="1:9" ht="11.25" customHeight="1">
       <c r="A20" s="7"/>
       <c r="B20" s="8"/>
-      <c r="C20" s="7"/>
+      <c r="C20" s="19"/>
       <c r="D20" s="11"/>
       <c r="E20" s="12"/>
       <c r="F20" s="13"/>
@@ -977,7 +1096,7 @@
     <row r="21" spans="1:9" ht="11.25" customHeight="1">
       <c r="A21" s="7"/>
       <c r="B21" s="8"/>
-      <c r="C21" s="7"/>
+      <c r="C21" s="19"/>
       <c r="D21" s="11"/>
       <c r="E21" s="12"/>
       <c r="F21" s="13"/>
@@ -988,7 +1107,7 @@
     <row r="22" spans="1:9" ht="11.25" customHeight="1">
       <c r="A22" s="7"/>
       <c r="B22" s="8"/>
-      <c r="C22" s="7"/>
+      <c r="C22" s="19"/>
       <c r="D22" s="11"/>
       <c r="E22" s="12"/>
       <c r="F22" s="13"/>
@@ -999,7 +1118,7 @@
     <row r="23" spans="1:9" ht="11.25" customHeight="1">
       <c r="A23" s="7"/>
       <c r="B23" s="8"/>
-      <c r="C23" s="7"/>
+      <c r="C23" s="19"/>
       <c r="D23" s="11"/>
       <c r="E23" s="12"/>
       <c r="F23" s="13"/>
@@ -1010,7 +1129,7 @@
     <row r="24" spans="1:9" ht="11.25" customHeight="1">
       <c r="A24" s="7"/>
       <c r="B24" s="8"/>
-      <c r="C24" s="7"/>
+      <c r="C24" s="19"/>
       <c r="D24" s="11"/>
       <c r="E24" s="12"/>
       <c r="F24" s="13"/>
@@ -1021,7 +1140,7 @@
     <row r="25" spans="1:9" ht="11.25" customHeight="1">
       <c r="A25" s="7"/>
       <c r="B25" s="8"/>
-      <c r="C25" s="7"/>
+      <c r="C25" s="19"/>
       <c r="D25" s="11"/>
       <c r="E25" s="12"/>
       <c r="F25" s="13"/>
@@ -1032,7 +1151,7 @@
     <row r="26" spans="1:9" ht="11.25" customHeight="1">
       <c r="A26" s="7"/>
       <c r="B26" s="8"/>
-      <c r="C26" s="7"/>
+      <c r="C26" s="19"/>
       <c r="D26" s="11"/>
       <c r="E26" s="12"/>
       <c r="F26" s="13"/>
@@ -1043,7 +1162,7 @@
     <row r="27" spans="1:9" ht="11.25" customHeight="1">
       <c r="A27" s="7"/>
       <c r="B27" s="8"/>
-      <c r="C27" s="7"/>
+      <c r="C27" s="19"/>
       <c r="D27" s="11"/>
       <c r="E27" s="12"/>
       <c r="F27" s="13"/>
@@ -1054,7 +1173,7 @@
     <row r="28" spans="1:9" ht="11.25" customHeight="1">
       <c r="A28" s="7"/>
       <c r="B28" s="8"/>
-      <c r="C28" s="7"/>
+      <c r="C28" s="19"/>
       <c r="D28" s="11"/>
       <c r="E28" s="12"/>
       <c r="F28" s="13"/>
@@ -1065,7 +1184,7 @@
     <row r="29" spans="1:9" ht="11.25" customHeight="1">
       <c r="A29" s="7"/>
       <c r="B29" s="8"/>
-      <c r="C29" s="7"/>
+      <c r="C29" s="19"/>
       <c r="D29" s="11"/>
       <c r="E29" s="12"/>
       <c r="F29" s="13"/>
@@ -1076,7 +1195,7 @@
     <row r="30" spans="1:9" ht="11.25" customHeight="1">
       <c r="A30" s="7"/>
       <c r="B30" s="8"/>
-      <c r="C30" s="7"/>
+      <c r="C30" s="19"/>
       <c r="D30" s="11"/>
       <c r="E30" s="12"/>
       <c r="F30" s="13"/>
@@ -1087,7 +1206,7 @@
     <row r="31" spans="1:9" ht="11.25" customHeight="1">
       <c r="A31" s="7"/>
       <c r="B31" s="8"/>
-      <c r="C31" s="7"/>
+      <c r="C31" s="19"/>
       <c r="D31" s="11"/>
       <c r="E31" s="12"/>
       <c r="F31" s="13"/>
@@ -1098,7 +1217,7 @@
     <row r="32" spans="1:9" ht="11.25" customHeight="1">
       <c r="A32" s="7"/>
       <c r="B32" s="8"/>
-      <c r="C32" s="7"/>
+      <c r="C32" s="19"/>
       <c r="D32" s="11"/>
       <c r="E32" s="12"/>
       <c r="F32" s="13"/>
@@ -1109,7 +1228,7 @@
     <row r="33" spans="1:9" ht="11.25" customHeight="1">
       <c r="A33" s="7"/>
       <c r="B33" s="8"/>
-      <c r="C33" s="7"/>
+      <c r="C33" s="19"/>
       <c r="D33" s="11"/>
       <c r="E33" s="12"/>
       <c r="F33" s="13"/>
@@ -1120,7 +1239,7 @@
     <row r="34" spans="1:9" ht="11.25" customHeight="1">
       <c r="A34" s="7"/>
       <c r="B34" s="8"/>
-      <c r="C34" s="7"/>
+      <c r="C34" s="19"/>
       <c r="D34" s="11"/>
       <c r="E34" s="12"/>
       <c r="F34" s="13"/>
@@ -1131,7 +1250,7 @@
     <row r="35" spans="1:9" ht="11.25" customHeight="1">
       <c r="A35" s="7"/>
       <c r="B35" s="8"/>
-      <c r="C35" s="7"/>
+      <c r="C35" s="19"/>
       <c r="D35" s="11"/>
       <c r="E35" s="12"/>
       <c r="F35" s="13"/>
@@ -1142,7 +1261,7 @@
     <row r="36" spans="1:9" ht="11.25" customHeight="1">
       <c r="A36" s="7"/>
       <c r="B36" s="8"/>
-      <c r="C36" s="7"/>
+      <c r="C36" s="19"/>
       <c r="D36" s="11"/>
       <c r="E36" s="12"/>
       <c r="F36" s="13"/>
@@ -1153,7 +1272,7 @@
     <row r="37" spans="1:9" ht="11.25" customHeight="1">
       <c r="A37" s="7"/>
       <c r="B37" s="8"/>
-      <c r="C37" s="7"/>
+      <c r="C37" s="19"/>
       <c r="D37" s="11"/>
       <c r="E37" s="12"/>
       <c r="F37" s="13"/>
@@ -1164,7 +1283,7 @@
     <row r="38" spans="1:9" ht="11.25" customHeight="1">
       <c r="A38" s="7"/>
       <c r="B38" s="8"/>
-      <c r="C38" s="7"/>
+      <c r="C38" s="19"/>
       <c r="D38" s="11"/>
       <c r="E38" s="12"/>
       <c r="F38" s="13"/>
@@ -1175,7 +1294,7 @@
     <row r="39" spans="1:9" ht="11.25" customHeight="1">
       <c r="A39" s="7"/>
       <c r="B39" s="8"/>
-      <c r="C39" s="7"/>
+      <c r="C39" s="19"/>
       <c r="D39" s="11"/>
       <c r="E39" s="12"/>
       <c r="F39" s="13"/>
@@ -1186,7 +1305,7 @@
     <row r="40" spans="1:9" ht="11.25" customHeight="1">
       <c r="A40" s="7"/>
       <c r="B40" s="8"/>
-      <c r="C40" s="7"/>
+      <c r="C40" s="19"/>
       <c r="D40" s="11"/>
       <c r="E40" s="12"/>
       <c r="F40" s="13"/>
@@ -1197,7 +1316,7 @@
     <row r="41" spans="1:9" ht="11.25" customHeight="1">
       <c r="A41" s="7"/>
       <c r="B41" s="8"/>
-      <c r="C41" s="7"/>
+      <c r="C41" s="19"/>
       <c r="D41" s="11"/>
       <c r="E41" s="12"/>
       <c r="F41" s="13"/>
@@ -1208,7 +1327,7 @@
     <row r="42" spans="1:9" ht="11.25" customHeight="1">
       <c r="A42" s="7"/>
       <c r="B42" s="8"/>
-      <c r="C42" s="7"/>
+      <c r="C42" s="19"/>
       <c r="D42" s="11"/>
       <c r="E42" s="12"/>
       <c r="F42" s="13"/>
@@ -1219,7 +1338,7 @@
     <row r="43" spans="1:9" ht="11.25" customHeight="1">
       <c r="A43" s="7"/>
       <c r="B43" s="8"/>
-      <c r="C43" s="7"/>
+      <c r="C43" s="19"/>
       <c r="D43" s="11"/>
       <c r="E43" s="12"/>
       <c r="F43" s="13"/>
@@ -1230,7 +1349,7 @@
     <row r="44" spans="1:9" ht="11.25" customHeight="1">
       <c r="A44" s="7"/>
       <c r="B44" s="8"/>
-      <c r="C44" s="7"/>
+      <c r="C44" s="19"/>
       <c r="D44" s="11"/>
       <c r="E44" s="12"/>
       <c r="F44" s="13"/>
@@ -1241,7 +1360,7 @@
     <row r="45" spans="1:9" ht="11.25" customHeight="1">
       <c r="A45" s="7"/>
       <c r="B45" s="8"/>
-      <c r="C45" s="7"/>
+      <c r="C45" s="19"/>
       <c r="D45" s="11"/>
       <c r="E45" s="12"/>
       <c r="F45" s="13"/>
@@ -1252,7 +1371,7 @@
     <row r="46" spans="1:9" ht="11.25" customHeight="1">
       <c r="A46" s="7"/>
       <c r="B46" s="8"/>
-      <c r="C46" s="7"/>
+      <c r="C46" s="19"/>
       <c r="D46" s="11"/>
       <c r="E46" s="12"/>
       <c r="F46" s="13"/>
@@ -1263,7 +1382,7 @@
     <row r="47" spans="1:9" ht="11.25" customHeight="1">
       <c r="A47" s="7"/>
       <c r="B47" s="8"/>
-      <c r="C47" s="7"/>
+      <c r="C47" s="19"/>
       <c r="D47" s="11"/>
       <c r="E47" s="12"/>
       <c r="F47" s="13"/>
@@ -1274,7 +1393,7 @@
     <row r="48" spans="1:9" ht="11.25" customHeight="1">
       <c r="A48" s="7"/>
       <c r="B48" s="8"/>
-      <c r="C48" s="7"/>
+      <c r="C48" s="19"/>
       <c r="D48" s="11"/>
       <c r="E48" s="12"/>
       <c r="F48" s="13"/>
@@ -1285,7 +1404,7 @@
     <row r="49" spans="1:9" ht="11.25" customHeight="1">
       <c r="A49" s="7"/>
       <c r="B49" s="8"/>
-      <c r="C49" s="7"/>
+      <c r="C49" s="19"/>
       <c r="D49" s="11"/>
       <c r="E49" s="12"/>
       <c r="F49" s="13"/>
@@ -1296,7 +1415,7 @@
     <row r="50" spans="1:9" ht="11.25" customHeight="1">
       <c r="A50" s="7"/>
       <c r="B50" s="8"/>
-      <c r="C50" s="7"/>
+      <c r="C50" s="19"/>
       <c r="D50" s="11"/>
       <c r="E50" s="12"/>
       <c r="F50" s="13"/>
@@ -1307,7 +1426,7 @@
     <row r="51" spans="1:9" ht="11.25" customHeight="1">
       <c r="A51" s="7"/>
       <c r="B51" s="8"/>
-      <c r="C51" s="7"/>
+      <c r="C51" s="19"/>
       <c r="D51" s="11"/>
       <c r="E51" s="12"/>
       <c r="F51" s="13"/>
@@ -1318,7 +1437,7 @@
     <row r="52" spans="1:9" ht="11.25" customHeight="1">
       <c r="A52" s="7"/>
       <c r="B52" s="8"/>
-      <c r="C52" s="7"/>
+      <c r="C52" s="19"/>
       <c r="D52" s="11"/>
       <c r="E52" s="12"/>
       <c r="F52" s="13"/>
@@ -1329,7 +1448,7 @@
     <row r="53" spans="1:9" ht="11.25" customHeight="1">
       <c r="A53" s="7"/>
       <c r="B53" s="8"/>
-      <c r="C53" s="7"/>
+      <c r="C53" s="19"/>
       <c r="D53" s="11"/>
       <c r="E53" s="12"/>
       <c r="F53" s="13"/>
@@ -1340,7 +1459,7 @@
     <row r="54" spans="1:9" ht="11.25" customHeight="1">
       <c r="A54" s="7"/>
       <c r="B54" s="8"/>
-      <c r="C54" s="7"/>
+      <c r="C54" s="19"/>
       <c r="D54" s="11"/>
       <c r="E54" s="12"/>
       <c r="F54" s="13"/>
@@ -1351,7 +1470,7 @@
     <row r="55" spans="1:9" ht="11.25" customHeight="1">
       <c r="A55" s="7"/>
       <c r="B55" s="8"/>
-      <c r="C55" s="7"/>
+      <c r="C55" s="19"/>
       <c r="D55" s="11"/>
       <c r="E55" s="12"/>
       <c r="F55" s="13"/>
@@ -1362,7 +1481,7 @@
     <row r="56" spans="1:9" ht="11.25" customHeight="1">
       <c r="A56" s="7"/>
       <c r="B56" s="8"/>
-      <c r="C56" s="7"/>
+      <c r="C56" s="19"/>
       <c r="D56" s="11"/>
       <c r="E56" s="12"/>
       <c r="F56" s="13"/>
@@ -1373,7 +1492,7 @@
     <row r="57" spans="1:9" ht="11.25" customHeight="1">
       <c r="A57" s="7"/>
       <c r="B57" s="8"/>
-      <c r="C57" s="7"/>
+      <c r="C57" s="19"/>
       <c r="D57" s="11"/>
       <c r="E57" s="12"/>
       <c r="F57" s="13"/>
@@ -1384,7 +1503,7 @@
     <row r="58" spans="1:9" ht="11.25" customHeight="1">
       <c r="A58" s="7"/>
       <c r="B58" s="8"/>
-      <c r="C58" s="7"/>
+      <c r="C58" s="19"/>
       <c r="D58" s="11"/>
       <c r="E58" s="12"/>
       <c r="F58" s="13"/>
@@ -1395,7 +1514,7 @@
     <row r="59" spans="1:9" ht="11.25" customHeight="1">
       <c r="A59" s="7"/>
       <c r="B59" s="8"/>
-      <c r="C59" s="7"/>
+      <c r="C59" s="19"/>
       <c r="D59" s="11"/>
       <c r="E59" s="12"/>
       <c r="F59" s="13"/>
@@ -1406,7 +1525,7 @@
     <row r="60" spans="1:9" ht="11.25" customHeight="1">
       <c r="A60" s="7"/>
       <c r="B60" s="8"/>
-      <c r="C60" s="7"/>
+      <c r="C60" s="19"/>
       <c r="D60" s="11"/>
       <c r="E60" s="12"/>
       <c r="F60" s="13"/>
@@ -1417,7 +1536,7 @@
     <row r="61" spans="1:9" ht="11.25" customHeight="1">
       <c r="A61" s="7"/>
       <c r="B61" s="8"/>
-      <c r="C61" s="7"/>
+      <c r="C61" s="19"/>
       <c r="D61" s="11"/>
       <c r="E61" s="12"/>
       <c r="F61" s="13"/>
@@ -1428,7 +1547,7 @@
     <row r="62" spans="1:9" ht="11.25" customHeight="1">
       <c r="A62" s="7"/>
       <c r="B62" s="8"/>
-      <c r="C62" s="7"/>
+      <c r="C62" s="19"/>
       <c r="D62" s="11"/>
       <c r="E62" s="12"/>
       <c r="F62" s="13"/>
@@ -1439,7 +1558,7 @@
     <row r="63" spans="1:9" ht="11.25" customHeight="1">
       <c r="A63" s="7"/>
       <c r="B63" s="8"/>
-      <c r="C63" s="7"/>
+      <c r="C63" s="19"/>
       <c r="D63" s="11"/>
       <c r="E63" s="12"/>
       <c r="F63" s="13"/>
@@ -1450,7 +1569,7 @@
     <row r="64" spans="1:9" ht="11.25" customHeight="1">
       <c r="A64" s="7"/>
       <c r="B64" s="8"/>
-      <c r="C64" s="7"/>
+      <c r="C64" s="19"/>
       <c r="D64" s="11"/>
       <c r="E64" s="12"/>
       <c r="F64" s="13"/>
@@ -1461,7 +1580,7 @@
     <row r="65" spans="1:9" ht="11.25" customHeight="1">
       <c r="A65" s="7"/>
       <c r="B65" s="8"/>
-      <c r="C65" s="7"/>
+      <c r="C65" s="19"/>
       <c r="D65" s="11"/>
       <c r="E65" s="12"/>
       <c r="F65" s="13"/>
@@ -1472,7 +1591,7 @@
     <row r="66" spans="1:9" ht="11.25" customHeight="1">
       <c r="A66" s="7"/>
       <c r="B66" s="8"/>
-      <c r="C66" s="7"/>
+      <c r="C66" s="19"/>
       <c r="D66" s="11"/>
       <c r="E66" s="12"/>
       <c r="F66" s="13"/>
@@ -1483,7 +1602,7 @@
     <row r="67" spans="1:9" ht="11.25" customHeight="1">
       <c r="A67" s="7"/>
       <c r="B67" s="8"/>
-      <c r="C67" s="7"/>
+      <c r="C67" s="19"/>
       <c r="D67" s="11"/>
       <c r="E67" s="12"/>
       <c r="F67" s="13"/>
@@ -1494,7 +1613,7 @@
     <row r="68" spans="1:9" ht="11.25" customHeight="1">
       <c r="A68" s="7"/>
       <c r="B68" s="8"/>
-      <c r="C68" s="7"/>
+      <c r="C68" s="19"/>
       <c r="D68" s="11"/>
       <c r="E68" s="12"/>
       <c r="F68" s="13"/>
@@ -1505,7 +1624,7 @@
     <row r="69" spans="1:9" ht="11.25" customHeight="1">
       <c r="A69" s="7"/>
       <c r="B69" s="8"/>
-      <c r="C69" s="7"/>
+      <c r="C69" s="19"/>
       <c r="D69" s="11"/>
       <c r="E69" s="12"/>
       <c r="F69" s="13"/>
@@ -1516,7 +1635,7 @@
     <row r="70" spans="1:9" ht="11.25" customHeight="1">
       <c r="A70" s="7"/>
       <c r="B70" s="8"/>
-      <c r="C70" s="7"/>
+      <c r="C70" s="19"/>
       <c r="D70" s="11"/>
       <c r="E70" s="12"/>
       <c r="F70" s="13"/>
@@ -1527,7 +1646,7 @@
     <row r="71" spans="1:9" ht="11.25" customHeight="1">
       <c r="A71" s="7"/>
       <c r="B71" s="8"/>
-      <c r="C71" s="7"/>
+      <c r="C71" s="19"/>
       <c r="D71" s="11"/>
       <c r="E71" s="12"/>
       <c r="F71" s="13"/>
@@ -1538,7 +1657,7 @@
     <row r="72" spans="1:9" ht="11.25" customHeight="1">
       <c r="A72" s="7"/>
       <c r="B72" s="8"/>
-      <c r="C72" s="7"/>
+      <c r="C72" s="19"/>
       <c r="D72" s="11"/>
       <c r="E72" s="12"/>
       <c r="F72" s="13"/>
@@ -1624,6 +1743,7 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
